--- a/Probabilidad y estadística/Control asistencia.xlsx
+++ b/Probabilidad y estadística/Control asistencia.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA77E46-DF64-4E46-BBA4-19C3BC569AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31012850-1914-46D6-BC49-22AEFD2245EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,21 +35,6 @@
     <t>Sesiones Totales</t>
   </si>
   <si>
-    <t>Semana 1 - 
-Jan 21 - Jan 27
-Sesion 1</t>
-  </si>
-  <si>
-    <t>Semana 1 - 
-Jan 21 - Jan 27
-Sesion 2</t>
-  </si>
-  <si>
-    <t>Semana 1 - 
-Jan 21 - Jan 27
-Sesion 3</t>
-  </si>
-  <si>
     <t>Semana 2 - 
 Jan 28 - Feb 03
 Sesion 1</t>
@@ -345,6 +330,15 @@
   </si>
   <si>
     <t>Villota Gonzalez,Santiago Jose</t>
+  </si>
+  <si>
+    <t>Monitoria 1</t>
+  </si>
+  <si>
+    <t>Monitoria 2</t>
+  </si>
+  <si>
+    <t>Monitoria 3</t>
   </si>
 </sst>
 </file>
@@ -897,8 +891,8 @@
   </sheetPr>
   <dimension ref="A1:BB26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -986,155 +980,155 @@
         <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="3" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K2" s="13"/>
       <c r="L2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AD2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AE2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AF2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AG2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AH2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AI2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="3" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="3" t="s">
+      <c r="AK2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AL2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AM2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AK2" s="3" t="s">
+      <c r="AN2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AL2" s="3" t="s">
+      <c r="AO2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AM2" s="3" t="s">
+      <c r="AP2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AN2" s="3" t="s">
+      <c r="AQ2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AO2" s="3" t="s">
+      <c r="AR2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AP2" s="3" t="s">
+      <c r="AS2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AQ2" s="3" t="s">
+      <c r="AT2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AR2" s="3" t="s">
+      <c r="AU2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AS2" s="3" t="s">
+      <c r="AV2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AT2" s="3" t="s">
+      <c r="AW2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AU2" s="3" t="s">
+      <c r="AX2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AV2" s="3" t="s">
+      <c r="AY2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AW2" s="3" t="s">
+      <c r="AZ2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AX2" s="3" t="s">
+      <c r="BA2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AY2" s="3" t="s">
+      <c r="BB2" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="AZ2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB2" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:54" ht="19.95" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B3" s="5">
         <v>0</v>
@@ -1198,7 +1192,7 @@
     </row>
     <row r="4" spans="1:54" ht="19.95" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B4" s="5">
         <v>0</v>
@@ -1212,7 +1206,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="H4" s="9"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -1262,7 +1256,7 @@
     </row>
     <row r="5" spans="1:54" ht="19.95" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B5" s="5">
         <v>0</v>
@@ -1276,7 +1270,7 @@
       <c r="E5" s="8"/>
       <c r="F5" s="9"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="H5" s="9"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -1326,7 +1320,7 @@
     </row>
     <row r="6" spans="1:54" ht="19.95" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B6" s="5">
         <v>0</v>
@@ -1340,7 +1334,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="H6" s="9"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -1390,7 +1384,7 @@
     </row>
     <row r="7" spans="1:54" ht="19.95" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B7" s="5">
         <v>0</v>
@@ -1454,7 +1448,7 @@
     </row>
     <row r="8" spans="1:54" ht="19.95" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
@@ -1468,7 +1462,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="H8" s="9"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
@@ -1518,7 +1512,7 @@
     </row>
     <row r="9" spans="1:54" ht="19.95" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B9" s="5">
         <v>0</v>
@@ -1532,7 +1526,7 @@
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="H9" s="9"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -1582,7 +1576,7 @@
     </row>
     <row r="10" spans="1:54" ht="19.95" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B10" s="5">
         <v>0</v>
@@ -1596,7 +1590,7 @@
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="H10" s="9"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -1646,7 +1640,7 @@
     </row>
     <row r="11" spans="1:54" ht="19.95" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B11" s="5">
         <v>0</v>
@@ -1660,7 +1654,7 @@
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="H11" s="9"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -1710,7 +1704,7 @@
     </row>
     <row r="12" spans="1:54" ht="19.95" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5">
         <v>0</v>
@@ -1724,7 +1718,7 @@
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="H12" s="9"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -1774,7 +1768,7 @@
     </row>
     <row r="13" spans="1:54" ht="19.95" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5">
         <v>0</v>
@@ -1788,7 +1782,7 @@
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="H13" s="9"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -1838,7 +1832,7 @@
     </row>
     <row r="14" spans="1:54" ht="19.95" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B14" s="5">
         <v>0</v>
@@ -1852,7 +1846,7 @@
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="H14" s="9"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
@@ -1902,7 +1896,7 @@
     </row>
     <row r="15" spans="1:54" ht="19.95" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B15" s="5">
         <v>0</v>
@@ -1966,7 +1960,7 @@
     </row>
     <row r="16" spans="1:54" ht="19.95" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B16" s="5">
         <v>0</v>
@@ -1980,7 +1974,7 @@
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
+      <c r="H16" s="9"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
@@ -2030,7 +2024,7 @@
     </row>
     <row r="17" spans="1:54" ht="19.95" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B17" s="5">
         <v>0</v>
@@ -2044,7 +2038,7 @@
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
+      <c r="H17" s="9"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
@@ -2094,7 +2088,7 @@
     </row>
     <row r="18" spans="1:54" ht="19.95" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B18" s="5">
         <v>0</v>
@@ -2108,7 +2102,7 @@
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
+      <c r="H18" s="9"/>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
@@ -2158,7 +2152,7 @@
     </row>
     <row r="19" spans="1:54" ht="19.95" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B19" s="5">
         <v>0</v>
@@ -2172,7 +2166,7 @@
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
+      <c r="H19" s="9"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
@@ -2222,7 +2216,7 @@
     </row>
     <row r="20" spans="1:54" ht="19.95" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B20" s="5">
         <v>0</v>
@@ -2236,7 +2230,7 @@
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
+      <c r="H20" s="9"/>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
@@ -2286,7 +2280,7 @@
     </row>
     <row r="21" spans="1:54" ht="19.95" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B21" s="5">
         <v>0</v>
@@ -2300,7 +2294,7 @@
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
+      <c r="H21" s="9"/>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
@@ -2350,7 +2344,7 @@
     </row>
     <row r="22" spans="1:54" ht="19.95" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B22" s="5">
         <v>0</v>
@@ -2364,7 +2358,7 @@
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
+      <c r="H22" s="9"/>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
@@ -2414,7 +2408,7 @@
     </row>
     <row r="23" spans="1:54" ht="19.95" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B23" s="5">
         <v>0</v>
@@ -2428,7 +2422,7 @@
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
+      <c r="H23" s="9"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
@@ -2478,7 +2472,7 @@
     </row>
     <row r="24" spans="1:54" ht="19.95" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B24" s="5">
         <v>0</v>
@@ -2542,7 +2536,7 @@
     </row>
     <row r="25" spans="1:54" ht="19.95" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B25" s="5">
         <v>0</v>
@@ -2556,7 +2550,7 @@
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
+      <c r="H25" s="9"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
@@ -2606,7 +2600,7 @@
     </row>
     <row r="26" spans="1:54" ht="19.95" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B26" s="5">
         <v>0</v>
@@ -2620,7 +2614,7 @@
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
+      <c r="H26" s="9"/>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
